--- a/Data/Temp/CENTROAMERICA_ANDINA_Black_List_Tracking_2021.xlsx
+++ b/Data/Temp/CENTROAMERICA_ANDINA_Black_List_Tracking_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yazmin\Documents\UiPath\cinepolisAndinaCentralAmerica\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312E09E-698D-4D2F-B17B-9EDC14287A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5C66C-7AE8-4930-9232-37D2697A4FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
